--- a/成果物/プロジェクト型演習_成果物フォーマット松本.xlsx
+++ b/成果物/プロジェクト型演習_成果物フォーマット松本.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\task_mgmt_system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\task_mgmt_system\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8651BA-50F1-41D6-8C44-A4F64278E015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E437EB2-961E-4EEA-AE6C-2C49359BF0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,13 @@
     <sheet name="詳細クラス図" sheetId="4" r:id="rId4"/>
     <sheet name="画面設計書" sheetId="5" r:id="rId5"/>
     <sheet name="テスト仕様書兼結果報告書" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
   <si>
     <t>初版</t>
   </si>
@@ -308,78 +307,6 @@
       <t>イチランヒョウジ</t>
     </rPh>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>カバレッジレポート</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>実施日</t>
-    <rPh sb="0" eb="3">
-      <t>ジッシビ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>（１）概要</t>
-    <rPh sb="3" eb="5">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>対象クラス</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>カバレッジ率</t>
-    <rPh sb="5" eb="6">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>（２）報告事項</t>
-    <rPh sb="3" eb="5">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>調査結果</t>
-    <rPh sb="0" eb="2">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>分析・考察</t>
-    <rPh sb="0" eb="2">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウサツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>備　考</t>
-    <rPh sb="0" eb="1">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>一覧表示画面</t>
@@ -668,7 +595,14 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>TaskListDAO</t>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">タスク管理システム(task_mgmt_system)								</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -679,7 +613,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -743,49 +677,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -814,7 +705,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,14 +718,8 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="74">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1491,112 +1376,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1696,9 +1475,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1813,68 +1592,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1883,16 +1613,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1919,135 +1646,135 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2066,31 +1793,88 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2099,91 +1883,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2358,61 +2058,6 @@
         <a:xfrm>
           <a:off x="28574" y="1544737"/>
           <a:ext cx="8724779" cy="2759598"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252736C0-18A0-044B-4DF5-1FC92155AAE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="2343150"/>
-          <a:ext cx="10296525" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2624,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2636,85 +2281,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -2734,46 +2379,48 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="E8" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="66" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="66"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="68"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="135">
+        <v>45898</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="66"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="68"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -2782,13 +2429,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -3807,19 +3454,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="106" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="106" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="94"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3831,190 +3478,190 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="107" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="107" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="111">
+      <c r="G2" s="59"/>
+      <c r="H2" s="64">
         <v>45877</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="103"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="104"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="105"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="77" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="80" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="81"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="74"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="80" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="81"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="80" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="81"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="74"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="82" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="81"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="99" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="80" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="81"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="81"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="80" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="81"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="74" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="90"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -5005,17 +4652,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -5024,14 +4668,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -5055,19 +4702,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="106" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="106" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="94"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
@@ -5079,46 +4726,46 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="107" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="107" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="111">
+      <c r="G2" s="59"/>
+      <c r="H2" s="64">
         <v>45877</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="103"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="104"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="105"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -6480,19 +6127,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="106" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="106" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="94"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
@@ -6504,46 +6151,46 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="107" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="107" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="111">
+      <c r="G2" s="59"/>
+      <c r="H2" s="64">
         <v>45881</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="103"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="104"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="105"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7902,19 +7549,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="106" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="106" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="94"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
@@ -7926,350 +7573,350 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="107" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="107" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="111">
+      <c r="G2" s="59"/>
+      <c r="H2" s="64">
         <v>45890</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="103"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="104"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="104"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="117" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="81"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="74"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="118"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="121"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="103"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="121"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="121"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="121"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="88"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="121"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="103"/>
     </row>
     <row r="13" spans="1:10" ht="93" customHeight="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="121"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="103"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="81"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="40" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="122" t="s">
+      <c r="H16" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="81"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="74"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="J17" s="74"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="17" t="s">
+      <c r="I18" s="49"/>
+      <c r="J18" s="74"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A19" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="56" t="s">
+      <c r="H19" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="I19" s="49"/>
+      <c r="J19" s="74"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A20" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="81"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="17" t="s">
+      <c r="H20" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="81"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="81"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="81"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="74"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="113"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="81"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="74"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="113"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="81"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="74"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="115"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="84"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="76"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="90"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9250,11 +8897,16 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -9271,16 +8923,11 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9293,8 +8940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="79" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:K18"/>
+    <sheetView topLeftCell="G9" zoomScale="97" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9307,188 +8954,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="106" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="106" t="s">
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="106" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="106" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="94"/>
-      <c r="S1" s="106" t="s">
+      <c r="R1" s="57"/>
+      <c r="S1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="79"/>
+      <c r="T1" s="92"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="107" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="107" t="s">
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="146">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="116">
         <v>45894</v>
       </c>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="120"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="102"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="121"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="103"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="147"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="77" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="79"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="92"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="80" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="81"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="74"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="81"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="74"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -9550,7 +9197,7 @@
       <c r="C10" s="27"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="28"/>
@@ -9687,37 +9334,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="145" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="122" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="122" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="122" t="s">
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="68"/>
-      <c r="L15" s="122" t="s">
+      <c r="K15" s="50"/>
+      <c r="L15" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="67"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="122" t="s">
+      <c r="M15" s="49"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="68"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="50"/>
       <c r="R15" s="15" t="s">
         <v>48</v>
       </c>
@@ -9729,44 +9376,46 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="130">
+      <c r="A16" s="118">
         <v>1</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="131" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="139" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="50"/>
+      <c r="L16" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="121"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="38">
+        <v>45890</v>
+      </c>
+      <c r="S16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="139" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="68"/>
-      <c r="L16" s="140" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="141"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="137" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="55">
-        <v>45890</v>
-      </c>
-      <c r="S16" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="T16" s="34"/>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
@@ -9775,44 +9424,46 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="48" customHeight="1">
-      <c r="A17" s="127">
+      <c r="A17" s="129">
         <v>2</v>
       </c>
-      <c r="B17" s="108"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="108"/>
+        <v>68</v>
+      </c>
+      <c r="D17" s="59"/>
       <c r="E17" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="108"/>
-      <c r="G17" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="119"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="129" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="108"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="101"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="59"/>
       <c r="L17" s="123" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M17" s="124"/>
       <c r="N17" s="125"/>
       <c r="O17" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="60">
+        <v>70</v>
+      </c>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="43">
         <v>45890</v>
       </c>
-      <c r="S17" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="T17" s="62"/>
+      <c r="S17" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="34" t="s">
+        <v>101</v>
+      </c>
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
@@ -9821,44 +9472,46 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="48" customHeight="1">
-      <c r="A18" s="127">
+      <c r="A18" s="129">
         <v>3</v>
       </c>
-      <c r="B18" s="108"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="108"/>
+        <v>68</v>
+      </c>
+      <c r="D18" s="59"/>
       <c r="E18" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="108"/>
-      <c r="G18" s="129" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="119"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" s="108"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="101"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="59"/>
       <c r="L18" s="123" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M18" s="124"/>
       <c r="N18" s="125"/>
       <c r="O18" s="126" t="s">
-        <v>99</v>
-      </c>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="60">
+        <v>90</v>
+      </c>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="43">
         <v>45894</v>
       </c>
-      <c r="S18" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="T18" s="62"/>
+      <c r="S18" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="T18" s="34" t="s">
+        <v>101</v>
+      </c>
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
@@ -9867,44 +9520,46 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="48" customHeight="1">
-      <c r="A19" s="127">
+      <c r="A19" s="129">
         <v>4</v>
       </c>
-      <c r="B19" s="108"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="108"/>
+        <v>68</v>
+      </c>
+      <c r="D19" s="59"/>
       <c r="E19" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="108"/>
-      <c r="G19" s="129" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="119"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="108"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="101"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="59"/>
       <c r="L19" s="123" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M19" s="124"/>
       <c r="N19" s="125"/>
       <c r="O19" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="60">
+        <v>91</v>
+      </c>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="43">
         <v>45894</v>
       </c>
-      <c r="S19" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="T19" s="62"/>
+      <c r="S19" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="34" t="s">
+        <v>101</v>
+      </c>
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
@@ -9913,26 +9568,26 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="134"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="65"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="47"/>
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
@@ -9941,25 +9596,25 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="130"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
       <c r="T21" s="34"/>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
@@ -9969,23 +9624,23 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="130"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="68"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="50"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -9997,23 +9652,23 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="130"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="68"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="50"/>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
       <c r="T23" s="34"/>
@@ -10025,23 +9680,23 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="130"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="68"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="50"/>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34"/>
@@ -10053,23 +9708,23 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="130"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="68"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="50"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
@@ -10081,23 +9736,23 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="130"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="68"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="50"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
@@ -10109,23 +9764,23 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="130"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="68"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="50"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
@@ -10137,23 +9792,23 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="130"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="68"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="50"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
@@ -10165,23 +9820,23 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="130"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="68"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="50"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
@@ -10193,23 +9848,23 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="130"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="137"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="68"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="50"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
@@ -10221,23 +9876,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="130"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="137"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="68"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="50"/>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
       <c r="T31" s="34"/>
@@ -10249,23 +9904,23 @@
       <c r="Z31" s="35"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A32" s="130"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="137"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="68"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="50"/>
       <c r="R32" s="33"/>
       <c r="S32" s="33"/>
       <c r="T32" s="34"/>
@@ -10277,23 +9932,23 @@
       <c r="Z32" s="35"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A33" s="132"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="138"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="138"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="84"/>
+      <c r="A33" s="133"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="77"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
       <c r="T33" s="37"/>
@@ -11291,64 +10946,74 @@
     <row r="1002" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="A6:F6"/>
@@ -11373,1862 +11038,67 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E91F00-B16C-47ED-8B49-44579DE51955}">
-  <dimension ref="A1:BA46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AR6" sqref="AR6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="2" width="3" style="43"/>
-    <col min="3" max="3" width="3" style="44"/>
-    <col min="4" max="5" width="3" style="43"/>
-    <col min="6" max="6" width="3" style="44"/>
-    <col min="7" max="16384" width="3" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" ht="30" customHeight="1">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="156" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP1" s="156"/>
-      <c r="AQ1" s="156"/>
-      <c r="AR1" s="156"/>
-      <c r="AS1" s="156"/>
-      <c r="AT1" s="157">
-        <v>45894</v>
-      </c>
-      <c r="AU1" s="158"/>
-      <c r="AV1" s="158"/>
-      <c r="AW1" s="158"/>
-      <c r="AX1" s="158"/>
-      <c r="AY1" s="158"/>
-      <c r="AZ1" s="158"/>
-      <c r="BA1" s="158"/>
-    </row>
-    <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1"/>
-    <row r="3" spans="1:53" ht="9.9499999999999993" customHeight="1"/>
-    <row r="4" spans="1:53" ht="18" customHeight="1">
-      <c r="A4" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="45"/>
-      <c r="AK4" s="45"/>
-    </row>
-    <row r="5" spans="1:53" ht="24.95" customHeight="1">
-      <c r="A5" s="153" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="160"/>
-    </row>
-    <row r="6" spans="1:53" ht="24.95" customHeight="1">
-      <c r="A6" s="153" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="161">
-        <v>1</v>
-      </c>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="160"/>
-    </row>
-    <row r="7" spans="1:53" ht="9.9499999999999993" customHeight="1"/>
-    <row r="8" spans="1:53" ht="18" customHeight="1">
-      <c r="A8" s="45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" ht="18" customHeight="1">
-      <c r="A9" s="153" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="154"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="154"/>
-      <c r="V9" s="154"/>
-      <c r="W9" s="154"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="154"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="154"/>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="154"/>
-      <c r="AE9" s="154"/>
-      <c r="AF9" s="154"/>
-      <c r="AG9" s="154"/>
-      <c r="AH9" s="154"/>
-      <c r="AI9" s="154"/>
-      <c r="AJ9" s="154"/>
-      <c r="AK9" s="154"/>
-      <c r="AL9" s="154"/>
-      <c r="AM9" s="154"/>
-      <c r="AN9" s="154"/>
-      <c r="AO9" s="154"/>
-      <c r="AP9" s="154"/>
-      <c r="AQ9" s="154"/>
-      <c r="AR9" s="154"/>
-      <c r="AS9" s="154"/>
-      <c r="AT9" s="154"/>
-      <c r="AU9" s="154"/>
-      <c r="AV9" s="154"/>
-      <c r="AW9" s="154"/>
-      <c r="AX9" s="154"/>
-      <c r="AY9" s="154"/>
-      <c r="AZ9" s="154"/>
-      <c r="BA9" s="155"/>
-    </row>
-    <row r="10" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="BA10" s="49"/>
-    </row>
-    <row r="11" spans="1:53" ht="21.75" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="BA11" s="49"/>
-    </row>
-    <row r="12" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="BA12" s="49"/>
-    </row>
-    <row r="13" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="BA13" s="49"/>
-    </row>
-    <row r="14" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="BA14" s="49"/>
-    </row>
-    <row r="15" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="BA15" s="49"/>
-    </row>
-    <row r="16" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="BA16" s="49"/>
-    </row>
-    <row r="17" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="BA17" s="49"/>
-    </row>
-    <row r="18" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="BA18" s="49"/>
-    </row>
-    <row r="19" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="BA19" s="49"/>
-    </row>
-    <row r="20" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="BA20" s="49"/>
-    </row>
-    <row r="21" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="BA21" s="49"/>
-    </row>
-    <row r="22" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="48"/>
-      <c r="BA22" s="49"/>
-    </row>
-    <row r="23" spans="1:53" ht="21.75" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="48"/>
-      <c r="BA23" s="49"/>
-    </row>
-    <row r="24" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="BA24" s="49"/>
-    </row>
-    <row r="25" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="BA25" s="49"/>
-    </row>
-    <row r="26" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="BA26" s="49"/>
-    </row>
-    <row r="27" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="BA27" s="49"/>
-    </row>
-    <row r="28" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="BA28" s="49"/>
-    </row>
-    <row r="29" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
-      <c r="BA29" s="49"/>
-    </row>
-    <row r="30" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="48"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
-      <c r="BA30" s="49"/>
-    </row>
-    <row r="31" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
-      <c r="BA31" s="49"/>
-    </row>
-    <row r="32" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="BA32" s="49"/>
-    </row>
-    <row r="33" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
-      <c r="BA33" s="49"/>
-    </row>
-    <row r="34" spans="1:53" ht="18" customHeight="1">
-      <c r="A34" s="153" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="154"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="154"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="154"/>
-      <c r="Q34" s="154"/>
-      <c r="R34" s="154"/>
-      <c r="S34" s="154"/>
-      <c r="T34" s="154"/>
-      <c r="U34" s="154"/>
-      <c r="V34" s="154"/>
-      <c r="W34" s="154"/>
-      <c r="X34" s="154"/>
-      <c r="Y34" s="154"/>
-      <c r="Z34" s="154"/>
-      <c r="AA34" s="154"/>
-      <c r="AB34" s="154"/>
-      <c r="AC34" s="154"/>
-      <c r="AD34" s="154"/>
-      <c r="AE34" s="154"/>
-      <c r="AF34" s="154"/>
-      <c r="AG34" s="154"/>
-      <c r="AH34" s="154"/>
-      <c r="AI34" s="154"/>
-      <c r="AJ34" s="154"/>
-      <c r="AK34" s="154"/>
-      <c r="AL34" s="154"/>
-      <c r="AM34" s="154"/>
-      <c r="AN34" s="154"/>
-      <c r="AO34" s="154"/>
-      <c r="AP34" s="154"/>
-      <c r="AQ34" s="154"/>
-      <c r="AR34" s="154"/>
-      <c r="AS34" s="154"/>
-      <c r="AT34" s="154"/>
-      <c r="AU34" s="154"/>
-      <c r="AV34" s="154"/>
-      <c r="AW34" s="154"/>
-      <c r="AX34" s="154"/>
-      <c r="AY34" s="154"/>
-      <c r="AZ34" s="154"/>
-      <c r="BA34" s="155"/>
-    </row>
-    <row r="35" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="51"/>
-      <c r="AF35" s="51"/>
-      <c r="AG35" s="51"/>
-      <c r="AH35" s="51"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
-      <c r="BA35" s="49"/>
-    </row>
-    <row r="36" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="48"/>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="48"/>
-      <c r="AG36" s="48"/>
-      <c r="AH36" s="48"/>
-      <c r="AI36" s="48"/>
-      <c r="AJ36" s="48"/>
-      <c r="AK36" s="48"/>
-      <c r="BA36" s="49"/>
-    </row>
-    <row r="37" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="BA37" s="49"/>
-    </row>
-    <row r="38" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="48"/>
-      <c r="AA38" s="48"/>
-      <c r="AB38" s="48"/>
-      <c r="AC38" s="48"/>
-      <c r="AD38" s="48"/>
-      <c r="AE38" s="48"/>
-      <c r="AF38" s="48"/>
-      <c r="AG38" s="48"/>
-      <c r="AH38" s="48"/>
-      <c r="AI38" s="48"/>
-      <c r="AJ38" s="48"/>
-      <c r="AK38" s="48"/>
-      <c r="BA38" s="49"/>
-    </row>
-    <row r="39" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="48"/>
-      <c r="AA39" s="48"/>
-      <c r="AB39" s="48"/>
-      <c r="AC39" s="48"/>
-      <c r="AD39" s="48"/>
-      <c r="AE39" s="48"/>
-      <c r="AF39" s="48"/>
-      <c r="AG39" s="48"/>
-      <c r="AH39" s="48"/>
-      <c r="AI39" s="48"/>
-      <c r="AJ39" s="48"/>
-      <c r="AK39" s="48"/>
-      <c r="BA39" s="49"/>
-    </row>
-    <row r="40" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="48"/>
-      <c r="AA40" s="48"/>
-      <c r="AB40" s="48"/>
-      <c r="AC40" s="48"/>
-      <c r="AD40" s="48"/>
-      <c r="AE40" s="48"/>
-      <c r="AF40" s="48"/>
-      <c r="AG40" s="48"/>
-      <c r="AH40" s="48"/>
-      <c r="AI40" s="48"/>
-      <c r="AJ40" s="48"/>
-      <c r="AK40" s="48"/>
-      <c r="BA40" s="49"/>
-    </row>
-    <row r="41" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="48"/>
-      <c r="Z41" s="48"/>
-      <c r="AA41" s="48"/>
-      <c r="AB41" s="48"/>
-      <c r="AC41" s="48"/>
-      <c r="AD41" s="48"/>
-      <c r="AE41" s="48"/>
-      <c r="AF41" s="48"/>
-      <c r="AG41" s="48"/>
-      <c r="AH41" s="48"/>
-      <c r="AI41" s="48"/>
-      <c r="AJ41" s="48"/>
-      <c r="AK41" s="48"/>
-      <c r="BA41" s="49"/>
-    </row>
-    <row r="42" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="53"/>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="53"/>
-      <c r="AG42" s="53"/>
-      <c r="AH42" s="53"/>
-      <c r="AI42" s="53"/>
-      <c r="AJ42" s="53"/>
-      <c r="AK42" s="48"/>
-      <c r="BA42" s="49"/>
-    </row>
-    <row r="43" spans="1:53" ht="18" customHeight="1">
-      <c r="A43" s="153" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="154"/>
-      <c r="C43" s="154"/>
-      <c r="D43" s="154"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="154"/>
-      <c r="K43" s="154"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="154"/>
-      <c r="N43" s="154"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="154"/>
-      <c r="R43" s="154"/>
-      <c r="S43" s="154"/>
-      <c r="T43" s="154"/>
-      <c r="U43" s="154"/>
-      <c r="V43" s="154"/>
-      <c r="W43" s="154"/>
-      <c r="X43" s="154"/>
-      <c r="Y43" s="154"/>
-      <c r="Z43" s="154"/>
-      <c r="AA43" s="154"/>
-      <c r="AB43" s="154"/>
-      <c r="AC43" s="154"/>
-      <c r="AD43" s="154"/>
-      <c r="AE43" s="154"/>
-      <c r="AF43" s="154"/>
-      <c r="AG43" s="154"/>
-      <c r="AH43" s="154"/>
-      <c r="AI43" s="154"/>
-      <c r="AJ43" s="154"/>
-      <c r="AK43" s="154"/>
-      <c r="AL43" s="154"/>
-      <c r="AM43" s="154"/>
-      <c r="AN43" s="154"/>
-      <c r="AO43" s="154"/>
-      <c r="AP43" s="154"/>
-      <c r="AQ43" s="154"/>
-      <c r="AR43" s="154"/>
-      <c r="AS43" s="154"/>
-      <c r="AT43" s="154"/>
-      <c r="AU43" s="154"/>
-      <c r="AV43" s="154"/>
-      <c r="AW43" s="154"/>
-      <c r="AX43" s="154"/>
-      <c r="AY43" s="154"/>
-      <c r="AZ43" s="154"/>
-      <c r="BA43" s="154"/>
-    </row>
-    <row r="44" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="51"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="51"/>
-      <c r="AA44" s="51"/>
-      <c r="AB44" s="51"/>
-      <c r="AC44" s="51"/>
-      <c r="AD44" s="51"/>
-      <c r="AE44" s="51"/>
-      <c r="AF44" s="51"/>
-      <c r="AG44" s="51"/>
-      <c r="AH44" s="51"/>
-      <c r="AI44" s="51"/>
-      <c r="AJ44" s="51"/>
-      <c r="AK44" s="48"/>
-      <c r="BA44" s="49"/>
-    </row>
-    <row r="45" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="48"/>
-      <c r="X45" s="48"/>
-      <c r="Y45" s="48"/>
-      <c r="Z45" s="48"/>
-      <c r="AA45" s="48"/>
-      <c r="AB45" s="48"/>
-      <c r="AC45" s="48"/>
-      <c r="AD45" s="48"/>
-      <c r="AE45" s="48"/>
-      <c r="AF45" s="48"/>
-      <c r="AG45" s="48"/>
-      <c r="AH45" s="48"/>
-      <c r="AI45" s="48"/>
-      <c r="AJ45" s="48"/>
-      <c r="AK45" s="48"/>
-      <c r="BA45" s="49"/>
-    </row>
-    <row r="46" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A46" s="52"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="53"/>
-      <c r="AF46" s="53"/>
-      <c r="AG46" s="53"/>
-      <c r="AH46" s="53"/>
-      <c r="AI46" s="53"/>
-      <c r="AJ46" s="53"/>
-      <c r="AK46" s="53"/>
-      <c r="AL46" s="38"/>
-      <c r="AM46" s="38"/>
-      <c r="AN46" s="38"/>
-      <c r="AO46" s="38"/>
-      <c r="AP46" s="38"/>
-      <c r="AQ46" s="38"/>
-      <c r="AR46" s="38"/>
-      <c r="AS46" s="38"/>
-      <c r="AT46" s="38"/>
-      <c r="AU46" s="38"/>
-      <c r="AV46" s="38"/>
-      <c r="AW46" s="38"/>
-      <c r="AX46" s="38"/>
-      <c r="AY46" s="38"/>
-      <c r="AZ46" s="38"/>
-      <c r="BA46" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A9:BA9"/>
-    <mergeCell ref="A34:BA34"/>
-    <mergeCell ref="A43:BA43"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AT1:BA1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:S5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:S6"/>
-  </mergeCells>
-  <phoneticPr fontId="8"/>
-  <dataValidations count="2">
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO1:AS1" xr:uid="{53CD5B99-785F-4203-88AE-9680A9D92997}"/>
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:O1 I1:L1 A44:AK46 G5:G6 V1 AC1 AE1 A35:AK42 A10:AK33" xr:uid="{F7B9C0D0-BBAF-4AF0-95CE-5D20E329AF12}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>